--- a/drafts/bpm/RFP Template/requerimientos_bpm.xlsx
+++ b/drafts/bpm/RFP Template/requerimientos_bpm.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FFE669-8376-4642-8073-58AD6D8A0D27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="68">
   <si>
     <t>CAPACIDAD BPMN</t>
   </si>
@@ -33,12 +34,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Ciclo completo de BPMN: modelado, simulación, implementación,</t>
-  </si>
-  <si>
-    <t>ejecución, monitoreo y optimización en línea de los procesos implementados.</t>
-  </si>
-  <si>
     <t>Diseño de diagramas orientado a la comprensión del usuario final.</t>
   </si>
   <si>
@@ -75,27 +70,12 @@
     <t xml:space="preserve">Permitir el versionado de procesos de forma centralizada y bajo un gobierno de procesos. </t>
   </si>
   <si>
-    <t>Permitir establecer reglas de proceso a través de</t>
-  </si>
-  <si>
-    <t>un motor de reglas de negocio independiente del motor de procesos</t>
-  </si>
-  <si>
-    <t>Permitir realizas ajustes o modificaciones en los procesos. Crear, modificar o eliminar tareas en los diagramas de flujo de los procesos ya desarrollados para ponerlos en marcha nuevamente.</t>
-  </si>
-  <si>
     <t>Permitir integración de aplicaciones desde la etapa de diseño de los procesos</t>
   </si>
   <si>
     <t>Integración total con otros sistemas de información por medio de conectores.</t>
   </si>
   <si>
-    <t>Permitir incluir en el diseño controles de tiempo en la ejecución</t>
-  </si>
-  <si>
-    <t>de las actividades con el fin de escalonar y notificar si es necesario.</t>
-  </si>
-  <si>
     <t>Permitir reutilización de componentes, scripts, conectores en el diseño de los procesos.</t>
   </si>
   <si>
@@ -229,12 +209,24 @@
   </si>
   <si>
     <t>Capacidad de recuperarse ante fallos cuando el estado y severidad de los errores lo permita.</t>
+  </si>
+  <si>
+    <t>Permitir realizar ajustes o modificaciones en los procesos desplegados. Crear, modificar o eliminar tareas en los diagramas de flujo de los procesos ya desarrollados para ponerlos en marcha nuevamente.</t>
+  </si>
+  <si>
+    <t>Permitir establecer reglas de proceso a través de un motor de reglas de negocio independiente del motor de procesos</t>
+  </si>
+  <si>
+    <t>Permitir incluir en el diseño controles de tiempo en la ejecución de las actividades con el fin de escalonar y notificar si es necesario.</t>
+  </si>
+  <si>
+    <t>Ciclo completo de BPMN: modelado, simulación, implementación, ejecución, monitoreo y optimización en línea de los procesos implementados.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +242,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -366,20 +364,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,6 +391,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -438,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,9 +475,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,6 +527,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,21 +719,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,8 +744,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -717,729 +755,700 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="B46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="B51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="B52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="B54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="B55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="B56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="B57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="B58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="B59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="B60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="B61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="B62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
